--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sauvegarde de Mes cours\Projet 4\Projet\Starting website 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2788342E-261A-401F-9392-B39A4C3AAE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1330C03F-C993-4E15-B767-ACD1534078AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2318" yWindow="630" windowWidth="25612" windowHeight="14040" tabRatio="149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2993" yWindow="1305" windowWidth="25612" windowHeight="14040" tabRatio="149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1175,6 +1175,692 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Des balises </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;meta&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> importantes sont absentes</t>
+    </r>
+  </si>
+  <si>
+    <t>Ne pas oublier ces balises</t>
+  </si>
+  <si>
+    <t>Ajouter ces balises</t>
+  </si>
+  <si>
+    <t>Les images sont trop lourdes et souvent les tailles ne correspondent pas aux versions mobiles.</t>
+  </si>
+  <si>
+    <t>Prévoir des images de tailles différentes pour mobiles et desktop et de format webp</t>
+  </si>
+  <si>
+    <t>Convertir les formats et créer des images pour les versions mobiles</t>
+  </si>
+  <si>
+    <t>Manque le code pour Google Analytics</t>
+  </si>
+  <si>
+    <t>Une vue statistique est importante pour connaitre les faiblesses du site et y apporter des correctifs</t>
+  </si>
+  <si>
+    <t>Toujours utiliser Google Analytics</t>
+  </si>
+  <si>
+    <t>Inclure le code de Google Analytics</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>Problèmes SEO et Accessibilité</t>
+  </si>
+  <si>
+    <t>Utiliser le plus possible les balises sémantiques</t>
+  </si>
+  <si>
+    <t>Faire les modifications</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>color.A11Y.com</t>
+  </si>
+  <si>
+    <t>Taille des fichiers CSS et JS</t>
+  </si>
+  <si>
+    <t>Les fichiers ne sont pas minifiés</t>
+  </si>
+  <si>
+    <t>Une fois le développement terminé, pensez à minifier les fichiers CSS et JS</t>
+  </si>
+  <si>
+    <t>PROBLÈMES</t>
+  </si>
+  <si>
+    <t>À proscrire, ne pas risquer un blacklistage</t>
+  </si>
+  <si>
+    <t>Modifier les couleurs et contrastes défectueux</t>
+  </si>
+  <si>
+    <t>Tester les couleurs et contrastes avant de les utiliser</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les versions de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bootstrap.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jquery.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sont trop anciennes, elles possèdent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>failles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de sécurité à elles deux.</t>
+    </r>
+  </si>
+  <si>
+    <t>Balises sémantiques quasi inexistantes</t>
+  </si>
+  <si>
+    <t>Minifier les fichiers après modifications</t>
+  </si>
+  <si>
+    <t>Attention aux balises vides</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Balises vides et Class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.icon-bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inexistantes</t>
+    </r>
+  </si>
+  <si>
+    <t>Permets une compatibilité avec les anciennes versions d’IE</t>
+  </si>
+  <si>
+    <t>Manque-le ; à la fin</t>
+  </si>
+  <si>
+    <t>mettre des couleurs différentes ou ne pas mettre en couleur les bordures</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min-device-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max-device-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sont déconseillés</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre des icônes de lien, uniquement lorsque les liens sont disponibles. </t>
+  </si>
+  <si>
+    <t>Supprimer les icônes ou y mettre des liens</t>
+  </si>
+  <si>
+    <t>Optimiser les images</t>
+  </si>
+  <si>
+    <t>Gros problèmes d’accessibilité</t>
+  </si>
+  <si>
+    <t>Mettre à jour les versions, le code risque d’être à revoir</t>
+  </si>
+  <si>
+    <t>Tailles et format d’images non adaptés</t>
+  </si>
+  <si>
+    <t>La barre slash final n’a aucun effet</t>
+  </si>
+  <si>
+    <r>
+      <t>attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>success-msg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> non autorisé sur l’élément </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Déplacer le fichier et modifier le lien d’accès  href="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>./css/style.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supprimer les balises ne servant à rien et contrôler l’utilisation de la Class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.icon-bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dans le reste du </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CSS</t>
+    </r>
+  </si>
+  <si>
+    <t>Le label qui fonctionne avec le TextArea du dessous possède un ID au lieu d’un FOR, et le nom est commun au deux.</t>
+  </si>
+  <si>
+    <t>Mettre un FOR au Label pour l’associer au TextArea</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Erreur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">success-msg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fail-msg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">non autorisé sur l’élément </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à ce stade.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il existe l’attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOVALIDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> qui empêche toute validation</t>
+    </r>
+  </si>
+  <si>
+    <t>n’est pas une valeur</t>
+  </si>
+  <si>
+    <r>
+      <t>La règle-arobase </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@-ms-viewport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> n’est pas reconnue</t>
+    </r>
+  </si>
+  <si>
+    <t>Dans le contexte, ceci n’est pas un problème</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> était utilisé en CSS 2.1, alors qu’en CSS 3 c’est remplacé par </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>never</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Propriété erronée : padding-left </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(safe-area-inset-left) n’est pas une valeur de padding-left : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(safe-area-inset-left)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> n’est pas reconnu</t>
+    </r>
+  </si>
+  <si>
+    <t>Titre et Texte ci-dessus ne sont pas centrés malgré l’utilisation de la class text-center de bootstrap.css</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">J’ai créé et ajouté la class </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> aux balises </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+  </si>
+  <si>
+    <t>Vérifier le bon fonctionnement des class venant d’autres fichiers css</t>
+  </si>
+  <si>
+    <t>Ils ne servent à rien en l’état actuel</t>
+  </si>
+  <si>
+    <t>Le contraste n’est pas bon sur le texte du Footer</t>
+  </si>
+  <si>
+    <t>Le poids et les formats d’images sont trop lourds pour la plupart.</t>
+  </si>
+  <si>
+    <r>
       <t>Manque la balise</t>
     </r>
     <r>
@@ -1204,7 +1890,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;description&gt;</t>
+      <t>&lt; meta description&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1215,692 +1901,6 @@
       </rPr>
       <t xml:space="preserve"> est vide</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Des balises </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;meta&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> importantes sont absentes</t>
-    </r>
-  </si>
-  <si>
-    <t>Ne pas oublier ces balises</t>
-  </si>
-  <si>
-    <t>Ajouter ces balises</t>
-  </si>
-  <si>
-    <t>Les images sont trop lourdes et souvent les tailles ne correspondent pas aux versions mobiles.</t>
-  </si>
-  <si>
-    <t>Prévoir des images de tailles différentes pour mobiles et desktop et de format webp</t>
-  </si>
-  <si>
-    <t>Convertir les formats et créer des images pour les versions mobiles</t>
-  </si>
-  <si>
-    <t>Manque le code pour Google Analytics</t>
-  </si>
-  <si>
-    <t>Une vue statistique est importante pour connaitre les faiblesses du site et y apporter des correctifs</t>
-  </si>
-  <si>
-    <t>Toujours utiliser Google Analytics</t>
-  </si>
-  <si>
-    <t>Inclure le code de Google Analytics</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>Problèmes SEO et Accessibilité</t>
-  </si>
-  <si>
-    <t>Utiliser le plus possible les balises sémantiques</t>
-  </si>
-  <si>
-    <t>Faire les modifications</t>
-  </si>
-  <si>
-    <t>Cours</t>
-  </si>
-  <si>
-    <t>color.A11Y.com</t>
-  </si>
-  <si>
-    <t>Taille des fichiers CSS et JS</t>
-  </si>
-  <si>
-    <t>Les fichiers ne sont pas minifiés</t>
-  </si>
-  <si>
-    <t>Une fois le développement terminé, pensez à minifier les fichiers CSS et JS</t>
-  </si>
-  <si>
-    <t>PROBLÈMES</t>
-  </si>
-  <si>
-    <t>À proscrire, ne pas risquer un blacklistage</t>
-  </si>
-  <si>
-    <t>Modifier les couleurs et contrastes défectueux</t>
-  </si>
-  <si>
-    <t>Tester les couleurs et contrastes avant de les utiliser</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les versions de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bootstrap.js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> jquery.js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sont trop anciennes, elles possèdent </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>failles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de sécurité à elles deux.</t>
-    </r>
-  </si>
-  <si>
-    <t>Balises sémantiques quasi inexistantes</t>
-  </si>
-  <si>
-    <t>Minifier les fichiers après modifications</t>
-  </si>
-  <si>
-    <t>Attention aux balises vides</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Balises vides et Class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.icon-bar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> inexistantes</t>
-    </r>
-  </si>
-  <si>
-    <t>Permets une compatibilité avec les anciennes versions d’IE</t>
-  </si>
-  <si>
-    <t>Manque-le ; à la fin</t>
-  </si>
-  <si>
-    <t>mettre des couleurs différentes ou ne pas mettre en couleur les bordures</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>min-device-width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max-device-width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sont déconseillés</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre des icônes de lien, uniquement lorsque les liens sont disponibles. </t>
-  </si>
-  <si>
-    <t>Supprimer les icônes ou y mettre des liens</t>
-  </si>
-  <si>
-    <t>Optimiser les images</t>
-  </si>
-  <si>
-    <t>Gros problèmes d’accessibilité</t>
-  </si>
-  <si>
-    <t>Mettre à jour les versions, le code risque d’être à revoir</t>
-  </si>
-  <si>
-    <t>Tailles et format d’images non adaptés</t>
-  </si>
-  <si>
-    <t>La barre slash final n’a aucun effet</t>
-  </si>
-  <si>
-    <r>
-      <t>attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>success-msg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> non autorisé sur l’élément </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Déplacer le fichier et modifier le lien d’accès  href="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>./css/style.css</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Supprimer les balises ne servant à rien et contrôler l’utilisation de la Class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.icon-bar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dans le reste du </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CSS</t>
-    </r>
-  </si>
-  <si>
-    <t>Le label qui fonctionne avec le TextArea du dessous possède un ID au lieu d’un FOR, et le nom est commun au deux.</t>
-  </si>
-  <si>
-    <t>Mettre un FOR au Label pour l’associer au TextArea</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Erreur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">success-msg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> fail-msg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">non autorisé sur l’élément </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à ce stade.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Il existe l’attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOVALIDATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> qui empêche toute validation</t>
-    </r>
-  </si>
-  <si>
-    <t>n’est pas une valeur</t>
-  </si>
-  <si>
-    <r>
-      <t>La règle-arobase </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@-ms-viewport</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> n’est pas reconnue</t>
-    </r>
-  </si>
-  <si>
-    <t>Dans le contexte, ceci n’est pas un problème</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>none</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> était utilisé en CSS 2.1, alors qu’en CSS 3 c’est remplacé par </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>never</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Propriété erronée : padding-left </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(safe-area-inset-left) n’est pas une valeur de padding-left : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(safe-area-inset-left)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> n’est pas reconnu</t>
-    </r>
-  </si>
-  <si>
-    <t>Titre et Texte ci-dessus ne sont pas centrés malgré l’utilisation de la class text-center de bootstrap.css</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">J’ai créé et ajouté la class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>center</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> aux balises </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>H1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P</t>
-    </r>
-  </si>
-  <si>
-    <t>Vérifier le bon fonctionnement des class venant d’autres fichiers css</t>
-  </si>
-  <si>
-    <t>Ils ne servent à rien en l’état actuel</t>
-  </si>
-  <si>
-    <t>Le contraste n’est pas bon sur le texte du Footer</t>
-  </si>
-  <si>
-    <t>Le poids et les formats d’images sont trop lourds pour la plupart.</t>
   </si>
 </sst>
 </file>
@@ -2177,6 +2177,18 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2190,18 +2202,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2429,7 +2429,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.27734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2487,16 +2487,16 @@
       <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -2533,13 +2533,13 @@
         <v>102</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G3" s="21">
         <v>22</v>
       </c>
-      <c r="H3" s="29" t="s">
-        <v>123</v>
+      <c r="H3" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -2561,7 +2561,7 @@
       <c r="Z3" s="18"/>
     </row>
     <row r="4" spans="1:26" s="19" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -2571,17 +2571,17 @@
         <v>106</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>107</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G4" s="21"/>
-      <c r="H4" s="29" t="s">
-        <v>123</v>
+      <c r="H4" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -2607,23 +2607,23 @@
         <v>92</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>108</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="G5" s="21"/>
-      <c r="H5" s="29" t="s">
-        <v>123</v>
+      <c r="H5" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -2645,27 +2645,27 @@
       <c r="Z5" s="18"/>
     </row>
     <row r="6" spans="1:26" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>110</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>111</v>
       </c>
       <c r="G6" s="21"/>
-      <c r="H6" s="29" t="s">
-        <v>123</v>
+      <c r="H6" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -2691,23 +2691,23 @@
         <v>92</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="21" t="s">
+      <c r="E7" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>115</v>
-      </c>
       <c r="F7" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" s="21"/>
-      <c r="H7" s="29" t="s">
-        <v>123</v>
+      <c r="H7" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -2729,27 +2729,27 @@
       <c r="Z7" s="18"/>
     </row>
     <row r="8" spans="1:26" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>117</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>118</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>87</v>
       </c>
       <c r="G8" s="21"/>
-      <c r="H8" s="29" t="s">
-        <v>123</v>
+      <c r="H8" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -2775,23 +2775,23 @@
         <v>39</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="24" t="s">
         <v>122</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="29" t="s">
-        <v>123</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -2813,27 +2813,27 @@
       <c r="Z9" s="18"/>
     </row>
     <row r="10" spans="1:26" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>127</v>
-      </c>
       <c r="G10" s="21"/>
-      <c r="H10" s="29" t="s">
-        <v>123</v>
+      <c r="H10" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -2859,23 +2859,23 @@
         <v>92</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="E11" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" s="21"/>
-      <c r="H11" s="29" t="s">
-        <v>123</v>
+      <c r="H11" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -2897,16 +2897,16 @@
       <c r="Z11" s="18"/>
     </row>
     <row r="12" spans="1:26" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -2955,7 +2955,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>90</v>
@@ -2975,7 +2975,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
@@ -3005,7 +3005,7 @@
         <v>95</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13">
@@ -3023,7 +3023,7 @@
         <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>50</v>
@@ -3041,13 +3041,13 @@
         <v>57</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13">
@@ -3062,10 +3062,10 @@
         <v>59</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>62</v>
@@ -3082,10 +3082,10 @@
         <v>40</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>60</v>
@@ -3101,15 +3101,15 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
@@ -3119,10 +3119,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>96</v>
@@ -3140,7 +3140,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
@@ -3183,7 +3183,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>26</v>
@@ -3204,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>16</v>
@@ -3219,7 +3219,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>19</v>
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
@@ -3308,7 +3308,7 @@
         <v>45</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>46</v>
@@ -3328,7 +3328,7 @@
         <v>52</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>53</v>
@@ -3349,10 +3349,10 @@
         <v>52</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>63</v>
@@ -3368,15 +3368,15 @@
       </c>
     </row>
     <row r="34" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="1:8" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
@@ -3395,7 +3395,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>75</v>
@@ -3406,13 +3406,13 @@
         <v>40</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="E36" s="13" t="s">
         <v>77</v>
@@ -3430,13 +3430,13 @@
         <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>79</v>
@@ -3445,7 +3445,7 @@
         <v>97</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -3453,7 +3453,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>80</v>
@@ -3495,13 +3495,13 @@
         <v>89</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>99</v>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sauvegarde de Mes cours\Projet 4\Projet\Starting website 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1330C03F-C993-4E15-B767-ACD1534078AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EDD86F-F21F-4483-99B9-53231C81F382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2993" yWindow="1305" windowWidth="25612" windowHeight="14040" tabRatio="149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="176">
   <si>
     <t>Problème identifié</t>
   </si>
@@ -1901,6 +1901,122 @@
       </rPr>
       <t xml:space="preserve"> est vide</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utilisation des tailles de caractères en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lieu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> du rem.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les personnes mal voyantes agrandissent souvent la taille des fontes. Utiliser les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et non les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, permet l'adaptabilité aux réglages utilisateur.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utiliser les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour définir la taille des caractères</t>
+    </r>
+  </si>
+  <si>
+    <t>modifier les px en rem https://nekocalc.com/fr/px-a-rem-convertisseur</t>
+  </si>
+  <si>
+    <t>Documentation Bootstrap</t>
   </si>
 </sst>
 </file>
@@ -2425,11 +2541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1012"/>
+  <dimension ref="A1:Z1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.27734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2854,7 +2970,7 @@
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
     </row>
-    <row r="11" spans="1:26" s="19" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>92</v>
       </c>
@@ -2896,631 +3012,662 @@
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
     </row>
-    <row r="12" spans="1:26" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:26" s="19" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+    </row>
+    <row r="13" spans="1:26" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-    </row>
-    <row r="13" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
+    <row r="15" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G15" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G16" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B17" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13">
+      <c r="F19" s="13"/>
+      <c r="G19" s="13">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G20" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="11" t="s">
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="27" t="s">
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
         <v>4289</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="11" t="s">
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13">
         <v>4376</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
         <v>5127</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="11" t="s">
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B26" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="11" t="s">
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B28" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <v>7837</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G29" s="3">
         <v>7825</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="11" t="s">
+    <row r="30" spans="1:7" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B30" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F31" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G31" s="3">
         <v>7822</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="15" t="s">
+    <row r="32" spans="1:7" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B32" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F32" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="14" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="15" t="s">
+    <row r="34" spans="1:8" s="14" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B34" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D34" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F34" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G34" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="27" t="s">
+    <row r="35" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-    </row>
-    <row r="35" spans="1:8" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="9" t="s">
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+    </row>
+    <row r="36" spans="1:8" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="15" t="s">
+    <row r="37" spans="1:8" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B37" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D37" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13" t="s">
+      <c r="F37" s="13"/>
+      <c r="G37" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="9" t="s">
+    <row r="38" spans="1:8" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="15" t="s">
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B39" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E39" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F39" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="9" t="s">
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="15" t="s">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B41" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E41" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F41" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G41" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
@@ -3657,14 +3804,14 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A57" s="5"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+    <row r="57" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A58" s="5"/>
@@ -3675,7 +3822,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="5"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3774,7 +3921,15 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A70" s="5"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4717,16 +4872,17 @@
     <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A35:G35"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F31" r:id="rId1" xr:uid="{D2B16C20-5A2B-4467-ACDB-23D06A9999B7}"/>
-    <hyperlink ref="F30" r:id="rId2" xr:uid="{BF37386D-D324-4C5E-BF6A-253EC7B74322}"/>
+    <hyperlink ref="F32" r:id="rId1" xr:uid="{D2B16C20-5A2B-4467-ACDB-23D06A9999B7}"/>
+    <hyperlink ref="F31" r:id="rId2" xr:uid="{BF37386D-D324-4C5E-BF6A-253EC7B74322}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId3"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sauvegarde de Mes cours\Projet 4\Projet\Starting website 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EDD86F-F21F-4483-99B9-53231C81F382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E9A590-1B10-4425-95CB-C9D5EE335626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2993" yWindow="1305" windowWidth="25612" windowHeight="14040" tabRatio="149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="180">
   <si>
     <t>Problème identifié</t>
   </si>
@@ -2017,6 +2017,58 @@
   </si>
   <si>
     <t>Documentation Bootstrap</t>
+  </si>
+  <si>
+    <t>Le premier chargement des pages Javascript est trop chronophage.</t>
+  </si>
+  <si>
+    <t>Dessin de la première page trop long</t>
+  </si>
+  <si>
+    <t>Il faut retarder tant que possible leur chargement.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ajouter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à la balise &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2541,11 +2593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1013"/>
+  <dimension ref="A1:Z1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.27734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3012,7 +3064,7 @@
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
     </row>
-    <row r="12" spans="1:26" s="19" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" s="19" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="25" t="s">
         <v>52</v>
       </c>
@@ -3054,629 +3106,658 @@
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
     </row>
-    <row r="13" spans="1:26" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:26" s="19" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+    </row>
+    <row r="14" spans="1:26" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-    </row>
-    <row r="14" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G15" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+    <row r="16" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G17" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C18" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="11" t="s">
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E20" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="11" t="s">
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B22" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="27" t="s">
+    <row r="23" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
         <v>4289</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="11" t="s">
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13">
         <v>4376</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
+    <row r="26" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3">
         <v>5127</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="11" t="s">
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C27" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D27" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E27" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="11" t="s">
+    <row r="29" spans="1:7" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F29" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <v>7837</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="4" t="s">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G30" s="3">
         <v>7825</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="11" t="s">
+    <row r="31" spans="1:7" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B31" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="4" t="s">
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F32" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G32" s="3">
         <v>7822</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="15" t="s">
+    <row r="33" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B33" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F33" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G33" s="13">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="9" t="s">
+    <row r="34" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="14" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="15" t="s">
+    <row r="35" spans="1:8" s="14" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B35" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E35" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F35" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G35" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="27" t="s">
+    <row r="36" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" spans="1:8" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="9" t="s">
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+    </row>
+    <row r="37" spans="1:8" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="15" t="s">
+    <row r="38" spans="1:8" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13" t="s">
+      <c r="F38" s="13"/>
+      <c r="G38" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="9" t="s">
+    <row r="39" spans="1:8" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H38" s="22"/>
-    </row>
-    <row r="39" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="15" t="s">
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B40" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F40" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="9" t="s">
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="15" t="s">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B42" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E42" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F42" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G42" s="13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
@@ -3813,14 +3894,14 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="5"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+    <row r="58" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="5"/>
@@ -3831,7 +3912,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="5"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3930,7 +4011,15 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="5"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4873,16 +4962,17 @@
     <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F32" r:id="rId1" xr:uid="{D2B16C20-5A2B-4467-ACDB-23D06A9999B7}"/>
-    <hyperlink ref="F31" r:id="rId2" xr:uid="{BF37386D-D324-4C5E-BF6A-253EC7B74322}"/>
+    <hyperlink ref="F33" r:id="rId1" xr:uid="{D2B16C20-5A2B-4467-ACDB-23D06A9999B7}"/>
+    <hyperlink ref="F32" r:id="rId2" xr:uid="{BF37386D-D324-4C5E-BF6A-253EC7B74322}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId3"/>

--- a/Modèle-audit-SEO.xlsx
+++ b/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sauvegarde de Mes cours\Projet 4\Projet\Starting website 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E9A590-1B10-4425-95CB-C9D5EE335626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5D208D-3D51-4196-8216-ECF5CB4678B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2993" yWindow="1305" windowWidth="25612" windowHeight="14040" tabRatio="149" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="150">
   <si>
     <t>Problème identifié</t>
   </si>
@@ -383,9 +383,6 @@
     <t>5749, 6402, 6454, 6488, 6522, 6556, 6873</t>
   </si>
   <si>
-    <t>4174, 4190</t>
-  </si>
-  <si>
     <t>VALIDATION HTML</t>
   </si>
   <si>
@@ -540,15 +537,6 @@
     <t>w3docs</t>
   </si>
   <si>
-    <t>&lt;li&gt; &lt;/li&gt;</t>
-  </si>
-  <si>
-    <t>code inutile, balise vide</t>
-  </si>
-  <si>
-    <t>supprimer ces balises</t>
-  </si>
-  <si>
     <r>
       <t> href="</t>
     </r>
@@ -640,76 +628,6 @@
       </rPr>
       <t>max-width</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;span class="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>icon-bar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&gt;&lt;/span&gt;
-&lt;span class="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>icon-bar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&gt;&lt;/span&gt;
-&lt;span class="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>icon-bar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&gt;&lt;/span&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Contrôler son code</t>
   </si>
   <si>
     <r>
@@ -845,19 +763,420 @@
     <t>899, 900, 910, 911</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The value for the "font" shorthand property is invalid.
-font: </t>
-    </r>
-    <r>
-      <rPr>
+    <t>VALIDATION WCAG 2.1</t>
+  </si>
+  <si>
+    <t>Titre et Texte en orange/orange</t>
+  </si>
+  <si>
+    <t>Ne sert visuellement à rien, White Hack</t>
+  </si>
+  <si>
+    <t>Faire attention aux couleurs</t>
+  </si>
+  <si>
+    <t>60 et 63</t>
+  </si>
+  <si>
+    <t>Wave</t>
+  </si>
+  <si>
+    <t>Problème de contraste</t>
+  </si>
+  <si>
+    <t>Bien choisir ses couleurs et tester leur contraste</t>
+  </si>
+  <si>
+    <t>Mettre le texte en noir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augmenter la taille du titre du </t>
+  </si>
+  <si>
+    <t>Problème de contraste et lisibilité</t>
+  </si>
+  <si>
+    <t>Mettre les titres à leur taille</t>
+  </si>
+  <si>
+    <t>PageSpeed</t>
+  </si>
+  <si>
+    <t>Ne pas la mettre</t>
+  </si>
+  <si>
+    <t>Supprimer le slash /</t>
+  </si>
+  <si>
+    <t>Index.html et page2.html</t>
+  </si>
+  <si>
+    <t>Nombreuses lignes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fichier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>style.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à la racine</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mettre tous les fichiers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dans le même répertoire /css</t>
+    </r>
+  </si>
+  <si>
+    <t>Mettre à jour la version de Bootstrap</t>
+  </si>
+  <si>
+    <t>Passer les plus petites en 16px</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">La balise </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;title&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est vide</t>
+    </r>
+  </si>
+  <si>
+    <t>Toujours mettre un titre à la page pour les recherches</t>
+  </si>
+  <si>
+    <t>Ajouter un titre</t>
+  </si>
+  <si>
+    <t>Renseignement essentiel pour les moteurs de recherche</t>
+  </si>
+  <si>
+    <t>White hat SEO</t>
+  </si>
+  <si>
+    <t>De nombreuses pratiques de White hat sont utilisés</t>
+  </si>
+  <si>
+    <t>Les supprimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polices trop petites, mauvais choix de couleurs et contrastes </t>
+  </si>
+  <si>
+    <t>Problème de sécurité</t>
+  </si>
+  <si>
+    <t>Utiliser des versions plus récentes, et ne pas hésiter à les passer aux validateurs</t>
+  </si>
+  <si>
+    <t>Gtmetrix</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Des balises </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;meta&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> importantes sont absentes</t>
+    </r>
+  </si>
+  <si>
+    <t>Ne pas oublier ces balises</t>
+  </si>
+  <si>
+    <t>Ajouter ces balises</t>
+  </si>
+  <si>
+    <t>Les images sont trop lourdes et souvent les tailles ne correspondent pas aux versions mobiles.</t>
+  </si>
+  <si>
+    <t>Prévoir des images de tailles différentes pour mobiles et desktop et de format webp</t>
+  </si>
+  <si>
+    <t>Convertir les formats et créer des images pour les versions mobiles</t>
+  </si>
+  <si>
+    <t>Manque le code pour Google Analytics</t>
+  </si>
+  <si>
+    <t>Une vue statistique est importante pour connaitre les faiblesses du site et y apporter des correctifs</t>
+  </si>
+  <si>
+    <t>Toujours utiliser Google Analytics</t>
+  </si>
+  <si>
+    <t>Inclure le code de Google Analytics</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>Problèmes SEO et Accessibilité</t>
+  </si>
+  <si>
+    <t>Utiliser le plus possible les balises sémantiques</t>
+  </si>
+  <si>
+    <t>Faire les modifications</t>
+  </si>
+  <si>
+    <t>Cours</t>
+  </si>
+  <si>
+    <t>color.A11Y.com</t>
+  </si>
+  <si>
+    <t>Taille des fichiers CSS et JS</t>
+  </si>
+  <si>
+    <t>Les fichiers ne sont pas minifiés</t>
+  </si>
+  <si>
+    <t>Une fois le développement terminé, pensez à minifier les fichiers CSS et JS</t>
+  </si>
+  <si>
+    <t>PROBLÈMES</t>
+  </si>
+  <si>
+    <t>À proscrire, ne pas risquer un blacklistage</t>
+  </si>
+  <si>
+    <t>Modifier les couleurs et contrastes défectueux</t>
+  </si>
+  <si>
+    <t>Tester les couleurs et contrastes avant de les utiliser</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les versions de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bootstrap.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> jquery.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sont trop anciennes, elles possèdent </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>failles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de sécurité à elles deux.</t>
+    </r>
+  </si>
+  <si>
+    <t>Balises sémantiques quasi inexistantes</t>
+  </si>
+  <si>
+    <t>Minifier les fichiers après modifications</t>
+  </si>
+  <si>
+    <t>Permets une compatibilité avec les anciennes versions d’IE</t>
+  </si>
+  <si>
+    <t>Manque-le ; à la fin</t>
+  </si>
+  <si>
+    <t>mettre des couleurs différentes ou ne pas mettre en couleur les bordures</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>min-device-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max-device-width</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sont déconseillés</t>
+    </r>
+  </si>
+  <si>
+    <t>Gros problèmes d’accessibilité</t>
+  </si>
+  <si>
+    <t>Mettre à jour les versions, le code risque d’être à revoir</t>
+  </si>
+  <si>
+    <t>Tailles et format d’images non adaptés</t>
+  </si>
+  <si>
+    <t>La barre slash final n’a aucun effet</t>
+  </si>
+  <si>
+    <r>
+      <t>attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
+      <t>success-msg</t>
     </r>
     <r>
       <rPr>
@@ -867,8 +1186,52 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/</t>
-    </r>
+      <t xml:space="preserve"> non autorisé sur l’élément </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Déplacer le fichier et modifier le lien d’accès  href="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>./css/style.css</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Le label qui fonctionne avec le TextArea du dessous possède un ID au lieu d’un FOR, et le nom est commun au deux.</t>
+  </si>
+  <si>
+    <t>Mettre un FOR au Label pour l’associer au TextArea</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -877,7 +1240,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0</t>
+      <t>Erreur</t>
     </r>
     <r>
       <rPr>
@@ -887,15 +1250,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> a;</t>
-    </r>
-  </si>
-  <si>
-    <t>Les valeurs 0 ne sont invalides, il est attendu des valeurs en px.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">font: </t>
+      <t xml:space="preserve"> : attribut </t>
     </r>
     <r>
       <rPr>
@@ -905,7 +1260,26 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0px</t>
+      <t xml:space="preserve">success-msg </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fail-msg </t>
     </r>
     <r>
       <rPr>
@@ -915,7 +1289,60 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>/</t>
+      <t xml:space="preserve">non autorisé sur l’élément </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à ce stade.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Il existe l’attribut </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOVALIDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> qui empêche toute validation</t>
+    </r>
+  </si>
+  <si>
+    <t>n’est pas une valeur</t>
+  </si>
+  <si>
+    <r>
+      <t>La règle-arobase </t>
     </r>
     <r>
       <rPr>
@@ -925,7 +1352,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0px</t>
+      <t>@-ms-viewport</t>
     </r>
     <r>
       <rPr>
@@ -935,30 +1362,325 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> a;</t>
-    </r>
-  </si>
-  <si>
-    <t>stackoverflow</t>
-  </si>
-  <si>
-    <t>VALIDATION WCAG 2.1</t>
-  </si>
-  <si>
-    <t>Titre et Texte en orange/orange</t>
-  </si>
-  <si>
-    <t>Ne sert visuellement à rien, White Hack</t>
-  </si>
-  <si>
-    <t>Faire attention aux couleurs</t>
-  </si>
-  <si>
-    <t>60 et 63</t>
-  </si>
-  <si>
-    <r>
-      <t>Dans les balises H1 et P, remplacer la class</t>
+      <t> n’est pas reconnue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> était utilisé en CSS 2.1, alors qu’en CSS 3 c’est remplacé par </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>never</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Propriété erronée : padding-left </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(safe-area-inset-left) n’est pas une valeur de padding-left : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(safe-area-inset-left)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> n’est pas reconnu</t>
+    </r>
+  </si>
+  <si>
+    <t>Le contraste n’est pas bon sur le texte du Footer</t>
+  </si>
+  <si>
+    <r>
+      <t>Manque la balise</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;robots&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">et la balise </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt; meta description&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> est vide</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utilisation des tailles de caractères en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> au </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lieu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> du rem.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Les personnes mal voyantes agrandissent souvent la taille des fontes. Utiliser les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> et non les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>px</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, permet l'adaptabilité aux réglages utilisateur.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Utiliser les </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour définir la taille des caractères</t>
+    </r>
+  </si>
+  <si>
+    <t>modifier les px en rem https://nekocalc.com/fr/px-a-rem-convertisseur</t>
+  </si>
+  <si>
+    <t>Documentation Bootstrap</t>
+  </si>
+  <si>
+    <t>Le premier chargement des pages Javascript est trop chronophage.</t>
+  </si>
+  <si>
+    <t>Dessin de la première page trop long</t>
+  </si>
+  <si>
+    <t>Il faut retarder tant que possible leur chargement.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ajouter </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> à la balise &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>script</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dans les balises H1 et P, remplacer la classe</t>
     </r>
     <r>
       <rPr>
@@ -989,1085 +1711,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>tc-black</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dans les balises H1 et P, ajouter la class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> center</t>
-    </r>
-  </si>
-  <si>
-    <t>Pas de liens sur les Icons des réseaux sociaux du Footer</t>
-  </si>
-  <si>
-    <t>Wave</t>
-  </si>
-  <si>
-    <t>Problème de contraste</t>
-  </si>
-  <si>
-    <t>Bien choisir ses couleurs et tester leur contraste</t>
-  </si>
-  <si>
-    <t>Mettre le texte en noir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augmenter la taille du titre du </t>
-  </si>
-  <si>
-    <t>Problème de contraste et lisibilité</t>
-  </si>
-  <si>
-    <t>Mettre les titres à leur taille</t>
-  </si>
-  <si>
-    <t>Réduire la taille et changer de format</t>
-  </si>
-  <si>
-    <t>PageSpeed</t>
-  </si>
-  <si>
-    <t>929 et 933</t>
-  </si>
-  <si>
-    <t>Style.css</t>
-  </si>
-  <si>
-    <t>Ne pas la mettre</t>
-  </si>
-  <si>
-    <t>Supprimer le slash /</t>
-  </si>
-  <si>
-    <t>Index.html et page2.html</t>
-  </si>
-  <si>
-    <t>Nombreuses lignes</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fichier </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>style.css</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à la racine</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mettre tous les fichiers </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>css</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dans le même répertoire /css</t>
-    </r>
-  </si>
-  <si>
-    <t>Mettre à jour la version de Bootstrap</t>
-  </si>
-  <si>
-    <t>Footer</t>
-  </si>
-  <si>
-    <t>Passer les plus petites en 16px</t>
-  </si>
-  <si>
-    <t>Toutes les passer en webp</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">La balise </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;title&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est vide</t>
-    </r>
-  </si>
-  <si>
-    <t>Toujours mettre un titre à la page pour les recherches</t>
-  </si>
-  <si>
-    <t>Ajouter un titre</t>
-  </si>
-  <si>
-    <t>52 et 53</t>
-  </si>
-  <si>
-    <t>Renseignement essentiel pour les moteurs de recherche</t>
-  </si>
-  <si>
-    <t>White hat SEO</t>
-  </si>
-  <si>
-    <t>De nombreuses pratiques de White hat sont utilisés</t>
-  </si>
-  <si>
-    <t>Les supprimer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polices trop petites, mauvais choix de couleurs et contrastes </t>
-  </si>
-  <si>
-    <t>Problème de sécurité</t>
-  </si>
-  <si>
-    <t>Utiliser des versions plus récentes, et ne pas hésiter à les passer aux validateurs</t>
-  </si>
-  <si>
-    <t>Gtmetrix</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Des balises </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;meta&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> importantes sont absentes</t>
-    </r>
-  </si>
-  <si>
-    <t>Ne pas oublier ces balises</t>
-  </si>
-  <si>
-    <t>Ajouter ces balises</t>
-  </si>
-  <si>
-    <t>Les images sont trop lourdes et souvent les tailles ne correspondent pas aux versions mobiles.</t>
-  </si>
-  <si>
-    <t>Prévoir des images de tailles différentes pour mobiles et desktop et de format webp</t>
-  </si>
-  <si>
-    <t>Convertir les formats et créer des images pour les versions mobiles</t>
-  </si>
-  <si>
-    <t>Manque le code pour Google Analytics</t>
-  </si>
-  <si>
-    <t>Une vue statistique est importante pour connaitre les faiblesses du site et y apporter des correctifs</t>
-  </si>
-  <si>
-    <t>Toujours utiliser Google Analytics</t>
-  </si>
-  <si>
-    <t>Inclure le code de Google Analytics</t>
-  </si>
-  <si>
-    <t>√</t>
-  </si>
-  <si>
-    <t>Problèmes SEO et Accessibilité</t>
-  </si>
-  <si>
-    <t>Utiliser le plus possible les balises sémantiques</t>
-  </si>
-  <si>
-    <t>Faire les modifications</t>
-  </si>
-  <si>
-    <t>Cours</t>
-  </si>
-  <si>
-    <t>color.A11Y.com</t>
-  </si>
-  <si>
-    <t>Taille des fichiers CSS et JS</t>
-  </si>
-  <si>
-    <t>Les fichiers ne sont pas minifiés</t>
-  </si>
-  <si>
-    <t>Une fois le développement terminé, pensez à minifier les fichiers CSS et JS</t>
-  </si>
-  <si>
-    <t>PROBLÈMES</t>
-  </si>
-  <si>
-    <t>À proscrire, ne pas risquer un blacklistage</t>
-  </si>
-  <si>
-    <t>Modifier les couleurs et contrastes défectueux</t>
-  </si>
-  <si>
-    <t>Tester les couleurs et contrastes avant de les utiliser</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les versions de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bootstrap.js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> jquery.js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sont trop anciennes, elles possèdent </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>failles</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> de sécurité à elles deux.</t>
-    </r>
-  </si>
-  <si>
-    <t>Balises sémantiques quasi inexistantes</t>
-  </si>
-  <si>
-    <t>Minifier les fichiers après modifications</t>
-  </si>
-  <si>
-    <t>Attention aux balises vides</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Balises vides et Class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.icon-bar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> inexistantes</t>
-    </r>
-  </si>
-  <si>
-    <t>Permets une compatibilité avec les anciennes versions d’IE</t>
-  </si>
-  <si>
-    <t>Manque-le ; à la fin</t>
-  </si>
-  <si>
-    <t>mettre des couleurs différentes ou ne pas mettre en couleur les bordures</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>min-device-width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max-device-width</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> sont déconseillés</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre des icônes de lien, uniquement lorsque les liens sont disponibles. </t>
-  </si>
-  <si>
-    <t>Supprimer les icônes ou y mettre des liens</t>
-  </si>
-  <si>
-    <t>Optimiser les images</t>
-  </si>
-  <si>
-    <t>Gros problèmes d’accessibilité</t>
-  </si>
-  <si>
-    <t>Mettre à jour les versions, le code risque d’être à revoir</t>
-  </si>
-  <si>
-    <t>Tailles et format d’images non adaptés</t>
-  </si>
-  <si>
-    <t>La barre slash final n’a aucun effet</t>
-  </si>
-  <si>
-    <r>
-      <t>attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>success-msg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> non autorisé sur l’élément </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Déplacer le fichier et modifier le lien d’accès  href="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>./css/style.css</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Supprimer les balises ne servant à rien et contrôler l’utilisation de la Class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.icon-bar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> dans le reste du </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CSS</t>
-    </r>
-  </si>
-  <si>
-    <t>Le label qui fonctionne avec le TextArea du dessous possède un ID au lieu d’un FOR, et le nom est commun au deux.</t>
-  </si>
-  <si>
-    <t>Mettre un FOR au Label pour l’associer au TextArea</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Erreur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">success-msg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>et</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> fail-msg </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">non autorisé sur l’élément </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à ce stade.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Il existe l’attribut </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOVALIDATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> qui empêche toute validation</t>
-    </r>
-  </si>
-  <si>
-    <t>n’est pas une valeur</t>
-  </si>
-  <si>
-    <r>
-      <t>La règle-arobase </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@-ms-viewport</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> n’est pas reconnue</t>
-    </r>
-  </si>
-  <si>
-    <t>Dans le contexte, ceci n’est pas un problème</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>none</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> était utilisé en CSS 2.1, alors qu’en CSS 3 c’est remplacé par </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>never</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Propriété erronée : padding-left </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(safe-area-inset-left) n’est pas une valeur de padding-left : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(safe-area-inset-left)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>constant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> n’est pas reconnu</t>
-    </r>
-  </si>
-  <si>
-    <t>Titre et Texte ci-dessus ne sont pas centrés malgré l’utilisation de la class text-center de bootstrap.css</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">J’ai créé et ajouté la class </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>center</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> aux balises </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>H1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P</t>
-    </r>
-  </si>
-  <si>
-    <t>Vérifier le bon fonctionnement des class venant d’autres fichiers css</t>
-  </si>
-  <si>
-    <t>Ils ne servent à rien en l’état actuel</t>
-  </si>
-  <si>
-    <t>Le contraste n’est pas bon sur le texte du Footer</t>
-  </si>
-  <si>
-    <t>Le poids et les formats d’images sont trop lourds pour la plupart.</t>
-  </si>
-  <si>
-    <r>
-      <t>Manque la balise</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;robots&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">et la balise </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt; meta description&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> est vide</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Utilisation des tailles de caractères en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>px</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> au </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lieu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> du rem.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Les personnes mal voyantes agrandissent souvent la taille des fontes. Utiliser les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et non les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>px</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, permet l'adaptabilité aux réglages utilisateur.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Utiliser les </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour définir la taille des caractères</t>
-    </r>
-  </si>
-  <si>
-    <t>modifier les px en rem https://nekocalc.com/fr/px-a-rem-convertisseur</t>
-  </si>
-  <si>
-    <t>Documentation Bootstrap</t>
-  </si>
-  <si>
-    <t>Le premier chargement des pages Javascript est trop chronophage.</t>
-  </si>
-  <si>
-    <t>Dessin de la première page trop long</t>
-  </si>
-  <si>
-    <t>Il faut retarder tant que possible leur chargement.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ajouter </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>defer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> à la balise &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>script</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
     </r>
   </si>
 </sst>
@@ -2075,7 +1718,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2189,8 +1832,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2219,6 +1869,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9859BF"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9859BF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2300,9 +1962,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2342,9 +2001,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2370,6 +2026,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2593,11 +2255,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1014"/>
+  <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.27734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2613,28 +2275,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="30" t="s">
+        <v>3</v>
+      </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -2655,16 +2319,16 @@
       <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -2684,477 +2348,477 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" s="19" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="1:26" s="18" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="20">
+        <v>22</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+    </row>
+    <row r="4" spans="1:26" s="18" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+    </row>
+    <row r="5" spans="1:26" s="18" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+    </row>
+    <row r="6" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+    </row>
+    <row r="7" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+    </row>
+    <row r="8" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+    </row>
+    <row r="9" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+    </row>
+    <row r="10" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="21">
-        <v>22</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-    </row>
-    <row r="4" spans="1:26" s="19" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="C10" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-    </row>
-    <row r="5" spans="1:26" s="19" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+    </row>
+    <row r="11" spans="1:26" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+    </row>
+    <row r="12" spans="1:26" s="18" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+    </row>
+    <row r="13" spans="1:26" s="18" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-    </row>
-    <row r="6" spans="1:26" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-    </row>
-    <row r="7" spans="1:26" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-    </row>
-    <row r="8" spans="1:26" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-    </row>
-    <row r="9" spans="1:26" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-    </row>
-    <row r="10" spans="1:26" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-    </row>
-    <row r="11" spans="1:26" s="19" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-    </row>
-    <row r="12" spans="1:26" s="19" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-    </row>
-    <row r="13" spans="1:26" s="19" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="23"/>
+      <c r="A14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -3176,7 +2840,7 @@
     </row>
     <row r="15" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>5</v>
@@ -3189,41 +2853,41 @@
         <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>93</v>
+      <c r="C16" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
@@ -3233,533 +2897,456 @@
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="3">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13">
+      <c r="A18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="13">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="27" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="13" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="12">
+        <v>4376</v>
+      </c>
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="G24" s="3">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13">
-        <v>4376</v>
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="13" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
-        <v>5127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="13" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="12">
+        <v>7837</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="14" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="13">
-        <v>7837</v>
+        <v>32</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="3">
+        <v>7825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="12">
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="4" t="s">
-        <v>42</v>
+      <c r="A30" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="3">
-        <v>7825</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="64.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="13" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="13" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="E34" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F34" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="3">
-        <v>7822</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="13">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="14" customFormat="1" ht="64.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="D35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" s="7" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-    </row>
-    <row r="37" spans="1:8" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="14" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:8" s="14" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3768,7 +3355,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3777,7 +3364,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3786,7 +3373,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3795,7 +3382,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3804,7 +3391,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:8" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3840,70 +3427,70 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" s="7" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A52" s="5"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A53" s="5"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A54" s="5"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A55" s="5"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="5"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A57" s="5"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A58" s="5"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A59" s="5"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3912,7 +3499,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A60" s="5"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3957,78 +3544,22 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="5"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="5"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="5"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A68" s="5"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="5"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="5"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="5"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4956,25 +4487,17 @@
     <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F33" r:id="rId1" xr:uid="{D2B16C20-5A2B-4467-ACDB-23D06A9999B7}"/>
-    <hyperlink ref="F32" r:id="rId2" xr:uid="{BF37386D-D324-4C5E-BF6A-253EC7B74322}"/>
+    <hyperlink ref="F29" r:id="rId1" xr:uid="{D2B16C20-5A2B-4467-ACDB-23D06A9999B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>